--- a/data/objects.xlsx
+++ b/data/objects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/028a108878611417/final_projec_tuwaiq/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/028a108878611417/final_projec_tuwaiq/final_4/capstone-project-letterhunter/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{E88371D9-C4B2-400C-8ACC-7ED741E30719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3984CA3-43E2-48B1-BBAC-1724DE462CD0}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{E88371D9-C4B2-400C-8ACC-7ED741E30719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7286E5E-2EBF-4D4E-A454-45DC8F0EDA07}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,21 +88,9 @@
     <t>ط</t>
   </si>
   <si>
-    <t>Shemagh, Bag</t>
-  </si>
-  <si>
-    <t>Laptop, Bag</t>
-  </si>
-  <si>
-    <t>Tissue, Vase, Car Keys, Mouse, Prayer Beads, Pillow, Keys</t>
-  </si>
-  <si>
     <t>Cell Phone</t>
   </si>
   <si>
-    <t>Ipad, Cell Phone</t>
-  </si>
-  <si>
     <t>Couch, Cup, Chair, Laptop</t>
   </si>
   <si>
@@ -112,37 +100,49 @@
     <t>Water Bottle, Chess Piece, Pen</t>
   </si>
   <si>
-    <t>Couch</t>
-  </si>
-  <si>
-    <t>coin, Plant, money, Glasses</t>
-  </si>
-  <si>
     <t>coin, Iqal</t>
   </si>
   <si>
-    <t>Tissue, money, Mouse, Vase</t>
-  </si>
-  <si>
     <t>money, Notebook</t>
   </si>
   <si>
-    <t>Pillow</t>
-  </si>
-  <si>
-    <t>Switch Light</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
     <t>Couch, Airpods, Ipad, Tea-Coffee Pot</t>
   </si>
   <si>
-    <t>Board, Prayer Beads, Airpods, Watch</t>
-  </si>
-  <si>
     <t>Door, Balloon</t>
+  </si>
+  <si>
+    <t>Switch Light, Flower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pillow, Flower </t>
+  </si>
+  <si>
+    <t>Shemagh, Bag, Sandals</t>
+  </si>
+  <si>
+    <t>Laptop, Bag, Sandals, Shoe</t>
+  </si>
+  <si>
+    <t>Cell Phone, Shoe</t>
+  </si>
+  <si>
+    <t>coin, Plant, money, Glasses, Sandals, Shoe</t>
+  </si>
+  <si>
+    <t>Tissue, money, Mouse, Vase, Tooth Brush</t>
+  </si>
+  <si>
+    <t>Couch, Sandals, Soap, Plate</t>
+  </si>
+  <si>
+    <t>Table, Nail Polish, Plate</t>
+  </si>
+  <si>
+    <t>Tissue, Vase, Car Keys, Mouse, Prayer Beads, Pillow, Keys, Broom, Nail Polish, Spoon</t>
+  </si>
+  <si>
+    <t>Board, Prayer Beads, Airpods, Watch, Headphones, Car Toy, Bed</t>
   </si>
 </sst>
 </file>
@@ -221,6 +221,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -513,10 +517,13 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="51" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -531,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -539,7 +546,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -547,7 +554,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -555,7 +562,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -563,7 +570,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -571,7 +578,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -579,7 +586,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -587,7 +594,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -595,7 +602,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -603,7 +610,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -611,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -619,7 +626,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -627,7 +634,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -635,7 +642,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -643,7 +650,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -651,7 +658,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -659,7 +666,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -667,7 +674,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -675,7 +682,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -683,7 +690,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
